--- a/ERP/ERP.CommonLayer/dump/Book1.xlsx
+++ b/ERP/ERP.CommonLayer/dump/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-30" windowWidth="20400" windowHeight="4365" activeTab="1"/>
+    <workbookView xWindow="-180" yWindow="3060" windowWidth="20400" windowHeight="3960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="91">
   <si>
     <t>insert into product(productname,description,materialid,quantity,taxid,status,createddate,modifieddate)values('</t>
   </si>
@@ -228,12 +228,169 @@
   <si>
     <t>Shuttering ply - 34Kg</t>
   </si>
+  <si>
+    <t>Diamond sheet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Officers-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30mm Flush door ISI BWP 'A' grade </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sparrow-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30mm flush door   BWP  ISI</t>
+    </r>
+  </si>
+  <si>
+    <t>Size 1x4 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x4 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x4 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x4 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x4 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x4 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x4 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x4 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x6 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x6 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x6 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x6 -2 up in (RFT) - 2nd quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x6 -4 up in (RFT) - 2nd quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x6 - a Teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x6 - a Teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x6 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x6 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x6 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x6 -2 up in (RFT) - 2nd quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x6 -4 up in (RFT) - 2nd quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x6 - a Teak</t>
+  </si>
+  <si>
+    <t>Size 2x6 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x6 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x6 -2 up in (RFT) - 2nd quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x6 -4 up in (RFT) - 2nd quality teak</t>
+  </si>
+  <si>
+    <t>Size 3x6 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 3x10 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x12 - a Teak</t>
+  </si>
+  <si>
+    <t>Size 1x12 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x12 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1x12 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x12 - a Teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x12 - 3 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x12 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 1.5x12 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x12 - a Teak</t>
+  </si>
+  <si>
+    <t>Size 2x12 - 5 up in (RFT) - 1st quality teak</t>
+  </si>
+  <si>
+    <t>Size 2x12 - 6 up in (RFT) - 1st quality teak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +417,18 @@
       <color theme="1"/>
       <name val="Annapurna SIL"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -289,6 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,7 +1333,7 @@
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1779,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:S103"/>
+  <dimension ref="B2:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="B104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1790,8 +1960,8 @@
     <col min="2" max="2" width="171.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" customWidth="1"/>
     <col min="8" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
@@ -5493,7 +5663,7 @@
         <v>34</v>
       </c>
       <c r="Q67" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R67" s="6" t="s">
         <v>37</v>
@@ -5515,6 +5685,9 @@
       <c r="E68" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G68" s="6">
         <v>1192</v>
       </c>
@@ -5539,11 +5712,14 @@
       <c r="N68" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="O68" s="6">
+        <v>60.95</v>
+      </c>
       <c r="P68" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q68" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>37</v>
@@ -5556,6 +5732,18 @@
       <c r="B69" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C69">
+        <v>34</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G69" s="6">
         <v>1193</v>
       </c>
@@ -5580,11 +5768,14 @@
       <c r="N69" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="O69" s="6">
+        <v>65.25</v>
+      </c>
       <c r="P69" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q69" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>37</v>
@@ -5597,6 +5788,18 @@
       <c r="B70" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C70" s="6">
+        <v>34</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G70" s="6">
         <v>1194</v>
       </c>
@@ -5621,11 +5824,14 @@
       <c r="N70" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="O70" s="6">
+        <v>73.45</v>
+      </c>
       <c r="P70" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q70" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>37</v>
@@ -5634,16 +5840,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="2:19">
+    <row r="71" spans="2:19" ht="18" customHeight="1">
       <c r="B71" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G71" s="6">
         <v>1195</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="6">
         <v>1</v>
       </c>
@@ -5661,6 +5877,9 @@
       </c>
       <c r="N71" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="O71" s="6">
+        <v>65.900000000000006</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>34</v>
@@ -5675,16 +5894,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="2:19">
+    <row r="72" spans="2:19" ht="15" customHeight="1">
       <c r="B72" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="C72" s="6">
+        <v>36</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G72" s="6">
         <v>1196</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H72" s="6"/>
       <c r="I72" s="6">
         <v>1</v>
       </c>
@@ -5702,6 +5931,9 @@
       </c>
       <c r="N72" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="O72" s="6">
+        <v>93.15</v>
       </c>
       <c r="P72" s="6" t="s">
         <v>34</v>
@@ -5716,16 +5948,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:19">
+    <row r="73" spans="2:19" ht="15" customHeight="1">
       <c r="B73" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="C73" s="6">
+        <v>37</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G73" s="6">
         <v>1197</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H73" s="6"/>
       <c r="I73" s="6">
         <v>1</v>
       </c>
@@ -5743,6 +5985,9 @@
       </c>
       <c r="N73" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="O73" s="6">
+        <v>105.75</v>
       </c>
       <c r="P73" s="6" t="s">
         <v>34</v>
@@ -5761,10 +6006,22 @@
       <c r="B74" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C74" s="6">
+        <v>38</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G74" s="6">
         <v>1198</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I74" s="6">
@@ -5785,11 +6042,14 @@
       <c r="N74" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="O74" s="6">
+        <v>4.75</v>
+      </c>
       <c r="P74" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q74" s="6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R74" s="6" t="s">
         <v>37</v>
@@ -5802,6 +6062,18 @@
       <c r="B75" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C75" s="6">
+        <v>38</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G75" s="6">
         <v>1199</v>
       </c>
@@ -5826,11 +6098,14 @@
       <c r="N75" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="O75" s="6">
+        <v>5</v>
+      </c>
       <c r="P75" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q75" s="6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R75" s="6" t="s">
         <v>37</v>
@@ -5843,6 +6118,18 @@
       <c r="B76" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C76" s="6">
+        <v>38</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G76" s="6">
         <v>1200</v>
       </c>
@@ -5867,11 +6154,14 @@
       <c r="N76" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="O76" s="6">
+        <v>5.25</v>
+      </c>
       <c r="P76" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q76" s="6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R76" s="6" t="s">
         <v>37</v>
@@ -5884,138 +6174,1774 @@
       <c r="B77" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C77" s="6">
+        <v>38</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1201</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="6">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" s="6">
+        <v>1</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O77" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="2:19">
       <c r="B78" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C78" s="6">
+        <v>38</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1202</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6">
+        <v>1</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" s="6">
+        <v>1</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" spans="2:19">
       <c r="B79" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C79" s="6">
+        <v>38</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1203</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="6">
+        <v>1</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" s="6">
+        <v>1</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O79" s="6">
+        <v>7.75</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="2:19">
       <c r="B80" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80" s="6">
+        <v>38</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1204</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="6">
+        <v>1</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" s="6">
+        <v>1</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O80" s="6">
+        <v>9.75</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
       <c r="B81" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81" s="6">
+        <v>38</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1205</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6">
+        <v>1</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" s="6">
+        <v>1</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O81" s="6">
+        <v>10.25</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
       <c r="B82" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82" s="6">
+        <v>38</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1206</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" s="6">
+        <v>1</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O82" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
       <c r="B83" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83" s="6">
+        <v>38</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1207</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83" s="6">
+        <v>1</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O83" s="6">
+        <v>6.25</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
       <c r="B84" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84" s="6">
+        <v>38</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1208</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" s="6">
+        <v>1</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O84" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
       <c r="B85" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85" s="6">
+        <v>38</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1209</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6">
+        <v>1</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O85" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17">
       <c r="B86" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="C86" s="6">
+        <v>38</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1210</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="6">
+        <v>1</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O86" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17">
       <c r="B87" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87" s="6">
+        <v>38</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1211</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" s="6">
+        <v>1</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O87" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17">
       <c r="B88" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88" s="6">
+        <v>38</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1212</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" s="6">
+        <v>1</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O88" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17">
       <c r="B89" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89" s="6">
+        <v>38</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1213</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" s="6">
+        <v>1</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O89" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
       <c r="B90" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90" s="6">
+        <v>38</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1214</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90" s="6">
+        <v>1</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" s="6">
+        <v>1</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O90" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17">
       <c r="B91" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="C91" s="6">
+        <v>38</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1215</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" s="6">
+        <v>1</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" s="6">
+        <v>1</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O91" s="6">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
       <c r="B92" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="C92" s="6">
+        <v>38</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1216</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6">
+        <v>1</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" s="6">
+        <v>1</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O92" s="6">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
       <c r="B93" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="C93" s="6">
+        <v>38</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1217</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6">
+        <v>1</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K93" s="6">
+        <v>1</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" s="6">
+        <v>1</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O93" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17">
       <c r="B94" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="C94" s="6">
+        <v>38</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1218</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" s="6">
+        <v>1</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" s="6">
+        <v>1</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O94" s="6">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
       <c r="B95" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="C95" s="6">
+        <v>38</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1219</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K95" s="6">
+        <v>1</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" s="6">
+        <v>1</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O95" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17">
       <c r="B96" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96" s="6">
+        <v>38</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1220</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6">
+        <v>1</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K96" s="6">
+        <v>1</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" s="6">
+        <v>1</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O96" s="6">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15">
       <c r="B97" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97" s="6">
+        <v>38</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1221</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K97" s="6">
+        <v>1</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" s="6">
+        <v>1</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O97" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15">
       <c r="B98" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98" s="6">
+        <v>38</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1222</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K98" s="6">
+        <v>1</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" s="6">
+        <v>1</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O98" s="6">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15">
       <c r="B99" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99" s="6">
+        <v>38</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="6">
+        <v>1223</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" s="6">
+        <v>1</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" s="6">
+        <v>1</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O99" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15">
       <c r="B100" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="C100" s="6">
+        <v>38</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1224</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
+        <v>1</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" s="6">
+        <v>1</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" s="6">
+        <v>1</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O100" s="6">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15">
       <c r="B101" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="102" spans="2:2">
+      <c r="C101" s="6">
+        <v>38</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1225</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K101" s="6">
+        <v>1</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" s="6">
+        <v>1</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O101" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15">
       <c r="B102" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="C102" s="6">
+        <v>38</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1226</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" s="6">
+        <v>1</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O102" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15">
       <c r="B103" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="6">
+        <v>38</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1227</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K103" s="6">
+        <v>1</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" s="6">
+        <v>1</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O103" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15">
+      <c r="B104" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="6">
+        <v>38</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1228</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K104" s="6">
+        <v>1</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" s="6">
+        <v>1</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O104" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15">
+      <c r="B105" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="6">
+        <v>38</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1229</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K105" s="6">
+        <v>1</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" s="6">
+        <v>1</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O105" s="6">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15">
+      <c r="B106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="6">
+        <v>38</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1230</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
+        <v>1</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K106" s="6">
+        <v>1</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M106" s="6">
+        <v>1</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O106" s="6">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15">
+      <c r="B107" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="6">
+        <v>38</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1231</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" s="6">
+        <v>1</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" s="6">
+        <v>1</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O107" s="6">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="B108" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="6">
+        <v>38</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1232</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K108" s="6">
+        <v>1</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" s="6">
+        <v>1</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O108" s="6">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15">
+      <c r="B109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="6">
+        <v>38</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="6">
+        <v>1233</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>1</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K109" s="6">
+        <v>1</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" s="6">
+        <v>1</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O109" s="6">
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15">
+      <c r="B110" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="6">
+        <v>38</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1234</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>1</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K110" s="6">
+        <v>1</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" s="6">
+        <v>1</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O110" s="6">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15">
+      <c r="B111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="6">
+        <v>38</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G111" s="6">
+        <v>1235</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6">
+        <v>1</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K111" s="6">
+        <v>1</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" s="6">
+        <v>1</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O111" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15">
+      <c r="B112" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="6">
+        <v>38</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1236</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>1</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112" s="6">
+        <v>1</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" s="6">
+        <v>1</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="6">
+        <v>38</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="6">
+        <v>1237</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
+        <v>1</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" s="6">
+        <v>1</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" s="6">
+        <v>1</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="6">
+        <v>38</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="6">
+        <v>1238</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>1</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K114" s="6">
+        <v>1</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M114" s="6">
+        <v>1</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="6">
+        <v>38</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="6">
+        <v>1239</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>1</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K115" s="6">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" s="6">
+        <v>1</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="6">
+        <v>1240</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
+        <v>1</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K116" s="6">
+        <v>1</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M116" s="6">
+        <v>1</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="B119" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>